--- a/applications_export.xlsx
+++ b/applications_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Candidate has been offered the role of God Emperor of coding and is inquiring about start date.</t>
+          <t>Applicant has been accepted for the role of God Emperor of coding and is asked about start date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The applicant was informed that they will no longer be considered for the role.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>evilcorp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Interview Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Interview scheduled for 3/2/25.</t>
         </is>
       </c>
     </row>
